--- a/AutomatisationGlobaleInc/Annexes exercice 15/Commandes Janvier.xlsx
+++ b/AutomatisationGlobaleInc/Annexes exercice 15/Commandes Janvier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7aea5f05bb0a656/Mes cours/Estiam/E4/RPA - Fundamentals/Exercices/Exo15 - Module 1-20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexi\Documents\UiPath\AutomatisationGlobaleInc\Annexes exercice 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D9D64A577C15A4A54183E609B42A45BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605CE1A5-D29C-4756-9784-2D5BBFB594EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39FA111-D296-4AA5-8995-4CEE10D193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Ordinateur portable</t>
   </si>
   <si>
-    <t>Écran 27" Full HD</t>
-  </si>
-  <si>
     <t>220.00</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>89.90</t>
+  </si>
+  <si>
+    <t>Écran 27 Full HD</t>
   </si>
 </sst>
 </file>
@@ -516,20 +516,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -589,7 +589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -609,7 +609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -629,7 +629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -649,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -669,7 +669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -689,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -700,36 +700,36 @@
         <v>45678</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <v>45681</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -740,13 +740,13 @@
         <v>45685</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -767,6 +767,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009539DB493F819A47984ACA70CBB7F21D" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0dc959950fb61af314debc7e3976631e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75c570ee-dbf5-4040-b722-f20ea5a24629" xmlns:ns3="07b9a451-d37d-4400-893f-ab9971785dac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e66adcc51f31e992c214a67e8850f66a" ns2:_="" ns3:_="">
     <xsd:import namespace="75c570ee-dbf5-4040-b722-f20ea5a24629"/>
@@ -961,15 +970,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -982,13 +982,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B6A0B06-9335-4527-9FDB-EBE87417CEC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39BC3C6-78D3-45C1-BFCB-5853F2D34A5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39BC3C6-78D3-45C1-BFCB-5853F2D34A5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B6A0B06-9335-4527-9FDB-EBE87417CEC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75c570ee-dbf5-4040-b722-f20ea5a24629"/>
+    <ds:schemaRef ds:uri="07b9a451-d37d-4400-893f-ab9971785dac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3A423A0-3C88-4358-8CA8-E5BC6BBF7F01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3A423A0-3C88-4358-8CA8-E5BC6BBF7F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07b9a451-d37d-4400-893f-ab9971785dac"/>
+    <ds:schemaRef ds:uri="75c570ee-dbf5-4040-b722-f20ea5a24629"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>